--- a/FinalProject/docs/mock_course_list.xlsx
+++ b/FinalProject/docs/mock_course_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/Projects/CS232_Assignments/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/Projects/CS232_Assignments/FinalProject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CC0F0-1657-C045-8AED-793CA3A961FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E4A014-05D6-FE4E-A444-63B369D210A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="460" windowWidth="10000" windowHeight="16940" xr2:uid="{39020F34-3ED9-314B-B943-F01ABA66F3DB}"/>
+    <workbookView xWindow="17180" yWindow="460" windowWidth="10000" windowHeight="16940" xr2:uid="{39020F34-3ED9-314B-B943-F01ABA66F3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
